--- a/Data Exploration/TestPHP/Input/Crop-Info_Farmer Asset Mapping.xlsx
+++ b/Data Exploration/TestPHP/Input/Crop-Info_Farmer Asset Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e053c53d61b8413/Documents/GitHub/Farmer-Asset-Mapping/Data Exploration/TestPHP/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{0D907292-00E1-406B-9EE5-6CF87682F5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC507FF5-2450-4254-BE96-B5F14FCEDFA9}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{0D907292-00E1-406B-9EE5-6CF87682F5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A61A44D-7613-45AC-8316-3EABBD2CB22E}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCA138DE-6D3D-4F69-8F53-B6DA777AE13B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="110">
   <si>
     <t>Types of Crops</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>Onion</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -744,7 +747,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BE6CEE-9455-4BFE-BEC9-C44CE3F31DE2}">
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
@@ -2081,6 +2084,11 @@
         <v>107</v>
       </c>
     </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Exploration/TestPHP/Input/Crop-Info_Farmer Asset Mapping.xlsx
+++ b/Data Exploration/TestPHP/Input/Crop-Info_Farmer Asset Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e053c53d61b8413/Documents/GitHub/Farmer-Asset-Mapping/Data Exploration/TestPHP/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{0D907292-00E1-406B-9EE5-6CF87682F5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A61A44D-7613-45AC-8316-3EABBD2CB22E}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{0D907292-00E1-406B-9EE5-6CF87682F5B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFDB56ED-E5FC-464A-8890-1B88DC9DFE07}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCA138DE-6D3D-4F69-8F53-B6DA777AE13B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="120">
   <si>
     <t>Types of Crops</t>
   </si>
@@ -49,18 +49,9 @@
     <t>Type of Irrigation</t>
   </si>
   <si>
-    <t>Rainfall/Precipitation</t>
-  </si>
-  <si>
     <t>Temperature Tolerances</t>
   </si>
   <si>
-    <t>Pesticides</t>
-  </si>
-  <si>
-    <t>Vulnerabilities (heat, moisture, pests)</t>
-  </si>
-  <si>
     <t>Storage Temp (  ̊F)</t>
   </si>
   <si>
@@ -79,9 +70,6 @@
     <t>6.0-7.0</t>
   </si>
   <si>
-    <t xml:space="preserve">drip </t>
-  </si>
-  <si>
     <t>Cool-season (Hardy)</t>
   </si>
   <si>
@@ -100,9 +88,6 @@
     <t>6.0-7.5</t>
   </si>
   <si>
-    <t>sprinkler *</t>
-  </si>
-  <si>
     <t>90-98</t>
   </si>
   <si>
@@ -181,9 +166,6 @@
     <t>Squash</t>
   </si>
   <si>
-    <t>drip</t>
-  </si>
-  <si>
     <t>Warm-season (Very Tender)</t>
   </si>
   <si>
@@ -364,14 +346,103 @@
     <t>Onion</t>
   </si>
   <si>
-    <t>C</t>
+    <t>Base Temp in F</t>
+  </si>
+  <si>
+    <t>Sprinkler</t>
+  </si>
+  <si>
+    <t>Drip</t>
+  </si>
+  <si>
+    <t>Nitrogen</t>
+  </si>
+  <si>
+    <t>Apply 1.6 to 2.4 ounces of N per 100 square foot area in early spring as the asparagus emerges and again after the last harvest in June.</t>
+  </si>
+  <si>
+    <t>Side-dress with 8 ounces of N per 250 foot row when plants are half grown.</t>
+  </si>
+  <si>
+    <t>Side-dress with 4 ounces of N per 250 foot of row, 4 to 6 weeks after planting. Do not apply fresh manure; misshapen roots may result.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Side-dress with 4 ounces N per 250 foot row when plants are half grown.
+</t>
+  </si>
+  <si>
+    <t>Side-dress with 4 ounces of N per 250 foot of row when plants are half grown and again immediately after harvesting the first fruits.</t>
+  </si>
+  <si>
+    <t>Apply 8 ounces (one-half pound) of N per 100 foot of row 3 weeks after planting. Repeat every two to three weeks until the necks start to soften. Avoid applying N after bulbs begin to form as this can result in late maturity, large necks that are difficult to cure, soft onion bulbs, and overall poor storage quality.</t>
+  </si>
+  <si>
+    <r>
+      <t>Approximately 80% of the N requirement of peas comes from nitrogen fixation by </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF5A5D5E"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rhizobia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF5A5D5E"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>. Apply one-half pound of N per 1000 square foot area at seeding if the soil test shows the N-NO3 level below 5 ppm. This will help ensure nitrogen deficiency does not occur before N fixation occurs. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF5A5D5E"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Rhizobia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF5A5D5E"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> inoculation is strongly recommended.</t>
+    </r>
+  </si>
+  <si>
+    <t>Apply 12 ounces of N per 250 foot row per season as follows: 30% (3.6 oz) of N at planting; ~20% (2.8 oz N) at tuber set when tubers are approximate nickel size, ~20% (2.8 oz N) two weeks later followed by a final application of ~20% (2.8 oz N) two week after second application but no later than July 31st.</t>
+  </si>
+  <si>
+    <t>Apply 8 ounces of N per 250 foot row when plants have 8 to 10 leaves.   Apply 3.2 ounces (1/5 pound) of N per 250 foot row when silks first appear.</t>
+  </si>
+  <si>
+    <t>Work 4 ounces of N per 250 foot of row into the soil at planting; Side-dress with another 4 oz N when fruit are about 1/3 grown. After picking the first ripe fruit, side-dress with another 4 oz N. Urea or ammonium nitrate fertilizers are not recommended sources of N.</t>
+  </si>
+  <si>
+    <t>When the plants begin to vine, in midseason, apply a side-dressing of 2.5 ounces of N for each 250 feet of row.</t>
+  </si>
+  <si>
+    <t>Side-dress with 12 ounces (¾ pound) of N per 250 foot of row, 4 to 6 weeks after planting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apply 50-70 lb/A of N in the spring.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +463,19 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF5A5D5E"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF5A5D5E"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -414,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -428,6 +512,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,553 +838,592 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BE6CEE-9455-4BFE-BEC9-C44CE3F31DE2}">
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" customWidth="1"/>
-    <col min="11" max="11" width="23.88671875" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" customWidth="1"/>
-    <col min="13" max="13" width="32.5546875" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="19" style="5" customWidth="1"/>
-    <col min="16" max="16" width="20.109375" customWidth="1"/>
-    <col min="17" max="17" width="13.5546875" customWidth="1"/>
+    <col min="1" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="6" width="21.44140625" customWidth="1"/>
+    <col min="7" max="9" width="9.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.88671875" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="19" style="5" customWidth="1"/>
+    <col min="15" max="15" width="20.109375" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="R1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" t="s">
+        <v>88</v>
+      </c>
+      <c r="T1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" t="s">
+        <v>91</v>
+      </c>
+      <c r="W1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="2" customFormat="1" ht="163.19999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f>LEFT(G2,3)</f>
+        <v>6.0</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f>RIGHT(G2,3)</f>
+        <v>7.0</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="3">
+        <v>32</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2">
+        <v>90</v>
+      </c>
+      <c r="Q2">
+        <v>150</v>
+      </c>
+      <c r="R2"/>
+      <c r="S2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T2" t="s">
+        <v>96</v>
+      </c>
+      <c r="U2" t="s">
+        <v>97</v>
+      </c>
+      <c r="V2" t="s">
+        <v>96</v>
+      </c>
+      <c r="W2" t="s">
+        <v>96</v>
+      </c>
+      <c r="X2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <f t="shared" ref="H3:H21" si="0">LEFT(G3,3)</f>
+        <v>6.0</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f t="shared" ref="I3:I21" si="1">RIGHT(G3,3)</f>
+        <v>7.5</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3">
+        <v>39</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="3">
+        <v>32</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3">
+        <v>56</v>
+      </c>
+      <c r="Q3">
+        <v>75</v>
+      </c>
+      <c r="R3" t="s">
+        <v>95</v>
+      </c>
+      <c r="S3"/>
+      <c r="T3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U3" t="s">
+        <v>97</v>
+      </c>
+      <c r="V3" t="s">
+        <v>97</v>
+      </c>
+      <c r="W3" t="s">
+        <v>97</v>
+      </c>
+      <c r="X3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>91</v>
-      </c>
-      <c r="R1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S1" t="s">
-        <v>93</v>
-      </c>
-      <c r="T1" t="s">
-        <v>94</v>
-      </c>
-      <c r="U1" t="s">
-        <v>95</v>
-      </c>
-      <c r="V1" t="s">
-        <v>96</v>
-      </c>
-      <c r="W1" t="s">
-        <v>97</v>
-      </c>
-      <c r="X1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="str">
-        <f>LEFT(F2,3)</f>
-        <v>6.0</v>
-      </c>
-      <c r="H2" s="2" t="str">
-        <f>RIGHT(F2,3)</f>
-        <v>7.0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="3">
-        <v>32</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2">
-        <v>90</v>
-      </c>
-      <c r="R2">
-        <v>150</v>
-      </c>
-      <c r="S2"/>
-      <c r="T2" t="s">
-        <v>101</v>
-      </c>
-      <c r="U2" t="s">
-        <v>102</v>
-      </c>
-      <c r="V2" t="s">
-        <v>103</v>
-      </c>
-      <c r="W2" t="s">
-        <v>102</v>
-      </c>
-      <c r="X2" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G21" si="0">LEFT(F3,3)</f>
-        <v>6.0</v>
-      </c>
-      <c r="H3" s="2" t="str">
-        <f t="shared" ref="H3:H21" si="1">RIGHT(F3,3)</f>
-        <v>7.5</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="3">
-        <v>32</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3">
-        <v>56</v>
-      </c>
-      <c r="R3">
-        <v>75</v>
-      </c>
-      <c r="S3" t="s">
-        <v>101</v>
-      </c>
-      <c r="T3"/>
-      <c r="U3" t="s">
-        <v>102</v>
-      </c>
-      <c r="V3" t="s">
-        <v>103</v>
-      </c>
-      <c r="W3" t="s">
-        <v>103</v>
-      </c>
-      <c r="X3" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2">
-        <v>36</v>
-      </c>
-      <c r="E4" s="2">
-        <v>100</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="2" t="str">
+      <c r="H4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="I4" s="2" t="str">
         <f t="shared" si="1"/>
         <v>6.0</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="K4">
+        <v>50</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="O4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
-      <c r="S4"/>
+      <c r="S4" t="s">
+        <v>95</v>
+      </c>
       <c r="T4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="U4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="V4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="W4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="X4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Y4" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" s="2" customFormat="1" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2">
+        <v>23</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2">
         <v>36</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>100</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>6.0</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="I5" s="2" t="str">
         <f t="shared" si="1"/>
         <v>7.0</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="3">
+        <v>36</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5">
+        <v>90</v>
+      </c>
+      <c r="Q5">
+        <v>120</v>
+      </c>
+      <c r="R5" t="s">
+        <v>100</v>
+      </c>
+      <c r="S5" t="s">
+        <v>101</v>
+      </c>
+      <c r="T5" t="s">
+        <v>96</v>
+      </c>
+      <c r="U5" t="s">
+        <v>97</v>
+      </c>
+      <c r="V5" t="s">
+        <v>97</v>
+      </c>
+      <c r="W5" t="s">
+        <v>99</v>
+      </c>
+      <c r="X5" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="3">
-        <v>36</v>
-      </c>
-      <c r="O5" s="3" t="s">
+      <c r="E6" s="2">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5">
-        <v>90</v>
-      </c>
-      <c r="R5">
-        <v>120</v>
-      </c>
-      <c r="S5" t="s">
-        <v>106</v>
-      </c>
-      <c r="T5" t="s">
-        <v>107</v>
-      </c>
-      <c r="U5" t="s">
-        <v>102</v>
-      </c>
-      <c r="V5" t="s">
-        <v>103</v>
-      </c>
-      <c r="W5" t="s">
-        <v>103</v>
-      </c>
-      <c r="X5" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="2">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="2" t="str">
+      <c r="H6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>6.0</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="I6" s="2" t="str">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="K6">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="P6">
+        <v>70</v>
+      </c>
       <c r="Q6">
-        <v>70</v>
-      </c>
-      <c r="R6">
         <v>120</v>
       </c>
+      <c r="R6" t="s">
+        <v>100</v>
+      </c>
       <c r="S6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="T6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="V6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="W6" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="X6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Y6" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" s="2" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="2">
+        <v>32</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2">
         <v>18</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>24</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>6.0</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="I7" s="2" t="str">
         <f t="shared" si="1"/>
         <v>7.0</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="3">
+      <c r="K7">
+        <v>65</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="3">
         <v>32</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>39</v>
+      <c r="N7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7">
+        <v>120</v>
       </c>
       <c r="Q7">
-        <v>120</v>
-      </c>
-      <c r="R7">
         <v>150</v>
+      </c>
+      <c r="R7" t="s">
+        <v>95</v>
       </c>
       <c r="S7" t="s">
         <v>101</v>
       </c>
-      <c r="T7" t="s">
-        <v>107</v>
-      </c>
+      <c r="T7"/>
       <c r="U7"/>
       <c r="V7"/>
       <c r="W7"/>
       <c r="X7"/>
       <c r="Y7"/>
-      <c r="Z7"/>
     </row>
-    <row r="8" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2">
+        <v>35</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2">
         <v>36</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>100</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5.0</v>
       </c>
-      <c r="H8" s="2" t="str">
+      <c r="I8" s="2" t="str">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>43</v>
+      <c r="J8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8">
+        <v>60</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8">
+        <v>40</v>
       </c>
       <c r="Q8">
-        <v>40</v>
-      </c>
-      <c r="R8">
         <v>50</v>
       </c>
+      <c r="R8"/>
       <c r="S8"/>
       <c r="T8"/>
       <c r="U8"/>
@@ -1301,795 +1431,865 @@
       <c r="W8"/>
       <c r="X8"/>
       <c r="Y8"/>
-      <c r="Z8"/>
     </row>
-    <row r="9" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2">
+        <v>42</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2">
         <v>18</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>24</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>6.0</v>
       </c>
-      <c r="H9" s="2" t="str">
+      <c r="I9" s="2" t="str">
         <f t="shared" si="1"/>
         <v>7.0</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="J9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9">
+        <v>60</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="3">
         <v>95</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>23</v>
+      <c r="O9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9">
+        <v>55</v>
       </c>
       <c r="Q9">
-        <v>55</v>
-      </c>
-      <c r="R9">
         <v>70</v>
       </c>
-      <c r="S9" t="s">
-        <v>106</v>
-      </c>
-      <c r="T9"/>
+      <c r="R9" t="s">
+        <v>100</v>
+      </c>
+      <c r="S9"/>
+      <c r="T9" t="s">
+        <v>96</v>
+      </c>
       <c r="U9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="V9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="W9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="X9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="Y9" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="2">
+        <v>45</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2">
         <v>18</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>24</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="2" t="str">
+      <c r="G10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="H10" s="2" t="str">
+      <c r="I10" s="2" t="str">
         <f t="shared" si="1"/>
         <v>7.0</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10">
+        <v>40</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10">
+        <v>55</v>
+      </c>
+      <c r="Q10">
+        <v>90</v>
+      </c>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10" t="s">
+        <v>99</v>
+      </c>
+      <c r="U10" t="s">
+        <v>96</v>
+      </c>
+      <c r="V10" t="s">
+        <v>99</v>
+      </c>
+      <c r="W10" t="s">
+        <v>98</v>
+      </c>
+      <c r="X10" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>49</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10">
-        <v>55</v>
-      </c>
-      <c r="R10">
-        <v>90</v>
-      </c>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10" t="s">
-        <v>105</v>
-      </c>
-      <c r="V10" t="s">
-        <v>102</v>
-      </c>
-      <c r="W10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X10" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2">
         <v>12</v>
       </c>
-      <c r="D11" s="2">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="2" t="str">
+      <c r="G11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="H11" s="2" t="str">
+      <c r="I11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11">
+        <v>60</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="5">
+        <v>32</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11">
+        <v>85</v>
+      </c>
+      <c r="Q11">
+        <v>120</v>
+      </c>
+      <c r="R11" t="s">
+        <v>100</v>
+      </c>
+      <c r="S11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2">
         <v>36</v>
       </c>
-      <c r="N11" s="5">
-        <v>32</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q11">
-        <v>85</v>
-      </c>
-      <c r="R11">
-        <v>120</v>
-      </c>
-      <c r="S11" t="s">
-        <v>106</v>
-      </c>
-      <c r="T11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2">
-        <v>36</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>100</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="2" t="str">
+      <c r="G12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="H12" s="2" t="str">
+      <c r="I12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>49</v>
+      <c r="K12">
+        <v>50</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="N12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12">
         <v>60</v>
       </c>
-      <c r="O12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="Q12">
-        <v>60</v>
-      </c>
-      <c r="R12">
         <v>85</v>
       </c>
-      <c r="S12" t="s">
-        <v>106</v>
+      <c r="R12" t="s">
+        <v>100</v>
+      </c>
+      <c r="T12" t="s">
+        <v>99</v>
       </c>
       <c r="U12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="V12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="W12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Y12" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="2">
+        <v>57</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2">
         <v>18</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>24</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="2" t="str">
+      <c r="G13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="H13" s="2" t="str">
+      <c r="I13" s="2" t="str">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>64</v>
+      <c r="K13">
+        <v>50</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>23</v>
+        <v>60</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13">
+        <v>75</v>
       </c>
       <c r="Q13">
-        <v>75</v>
-      </c>
-      <c r="R13">
         <v>95</v>
       </c>
-      <c r="S13" t="s">
-        <v>106</v>
+      <c r="R13" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2">
+        <v>61</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2">
         <v>36</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>100</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="2" t="str">
+      <c r="G14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>6.0</v>
       </c>
-      <c r="H14" s="2" t="str">
+      <c r="I14" s="2" t="str">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="O14" s="5">
+      <c r="K14">
+        <v>40</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" s="5">
         <v>90</v>
       </c>
-      <c r="P14" s="2" t="s">
-        <v>31</v>
+      <c r="O14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14">
+        <v>50</v>
       </c>
       <c r="Q14">
-        <v>50</v>
-      </c>
-      <c r="R14">
         <v>95</v>
       </c>
+      <c r="S14" t="s">
+        <v>95</v>
+      </c>
       <c r="T14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="V14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="W14" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="X14" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Y14" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2">
         <v>12</v>
       </c>
-      <c r="D15" s="2">
-        <v>6</v>
-      </c>
-      <c r="E15" s="2">
-        <v>12</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="2" t="str">
+      <c r="G15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="H15" s="2" t="str">
+      <c r="I15" s="2" t="str">
         <f t="shared" si="1"/>
         <v>7.0</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N15" s="5">
+      <c r="K15">
+        <v>50</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="5">
         <v>32</v>
       </c>
-      <c r="O15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>70</v>
+      <c r="N15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15">
+        <v>60</v>
       </c>
       <c r="Q15">
-        <v>60</v>
-      </c>
-      <c r="R15">
         <v>95</v>
       </c>
+      <c r="R15" t="s">
+        <v>100</v>
+      </c>
       <c r="S15" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="T15" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="U15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V15" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="W15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="X15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="Y15" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="2">
+        <v>65</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="2">
         <v>18</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>24</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="2" t="str">
+      <c r="G16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="H16" s="2" t="str">
+      <c r="I16" s="2" t="str">
         <f t="shared" si="1"/>
         <v>7.0</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N16" s="5">
+      <c r="K16">
+        <v>40</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="5">
         <v>32</v>
       </c>
-      <c r="O16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>72</v>
+      <c r="N16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16">
+        <v>70</v>
       </c>
       <c r="Q16">
-        <v>70</v>
-      </c>
-      <c r="R16">
         <v>85</v>
       </c>
+      <c r="R16" t="s">
+        <v>95</v>
+      </c>
       <c r="S16" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="T16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="U16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V16" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="W16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="X16" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="Y16" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" ht="51" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6</v>
+      </c>
+      <c r="F17" s="2">
         <v>12</v>
       </c>
-      <c r="D17" s="2">
-        <v>6</v>
-      </c>
-      <c r="E17" s="2">
-        <v>12</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="2" t="str">
+      <c r="G17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>6.0</v>
       </c>
-      <c r="H17" s="2" t="str">
+      <c r="I17" s="2" t="str">
         <f t="shared" si="1"/>
         <v>7.0</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N17" s="5">
+      <c r="K17">
+        <v>50</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="5">
         <v>32</v>
       </c>
-      <c r="O17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>31</v>
+      <c r="N17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17">
+        <v>60</v>
       </c>
       <c r="Q17">
-        <v>60</v>
-      </c>
-      <c r="R17">
         <v>80</v>
       </c>
-      <c r="S17" t="s">
-        <v>106</v>
+      <c r="R17" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="2">
+        <v>68</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
         <v>18</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>24</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="2" t="str">
+      <c r="G18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
-      <c r="H18" s="2" t="str">
+      <c r="I18" s="2" t="str">
         <f t="shared" si="1"/>
         <v>7.0</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>49</v>
+      <c r="K18">
+        <v>40</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>23</v>
+        <v>60</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P18">
+        <v>22</v>
       </c>
       <c r="Q18">
-        <v>22</v>
-      </c>
-      <c r="R18">
         <v>30</v>
+      </c>
+      <c r="R18" t="s">
+        <v>95</v>
       </c>
       <c r="S18" t="s">
         <v>101</v>
       </c>
       <c r="T18" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="U18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V18" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="W18" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="X18" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Y18" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2">
+        <v>6</v>
+      </c>
+      <c r="F19" s="2">
         <v>12</v>
       </c>
-      <c r="D19" s="2">
-        <v>6</v>
-      </c>
-      <c r="E19" s="2">
-        <v>12</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="2" t="str">
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>6.0</v>
       </c>
-      <c r="H19" s="2" t="str">
+      <c r="I19" s="2" t="str">
         <f t="shared" si="1"/>
         <v>7.0</v>
       </c>
-      <c r="N19" s="5">
+      <c r="K19">
+        <v>35</v>
+      </c>
+      <c r="M19" s="5">
         <v>32</v>
       </c>
-      <c r="O19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>77</v>
+      <c r="N19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19">
+        <v>37</v>
       </c>
       <c r="Q19">
-        <v>37</v>
-      </c>
-      <c r="R19">
         <v>45</v>
       </c>
+      <c r="T19" t="s">
+        <v>96</v>
+      </c>
       <c r="U19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V19" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="W19" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="X19" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Y19" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="51" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="2">
+        <v>72</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
         <v>18</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>24</v>
       </c>
-      <c r="F20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="2" t="str">
+      <c r="G20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="H20" s="2" t="str">
+      <c r="I20" s="2" t="str">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="K20" t="s">
-        <v>15</v>
+      <c r="K20">
+        <v>65</v>
+      </c>
+      <c r="L20" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20">
+        <v>80</v>
       </c>
       <c r="Q20">
-        <v>80</v>
-      </c>
-      <c r="R20">
         <v>90</v>
       </c>
+      <c r="R20" t="s">
+        <v>100</v>
+      </c>
       <c r="S20" t="s">
-        <v>106</v>
-      </c>
-      <c r="T20" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="2">
+        <v>74</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="2">
         <v>18</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
         <v>24</v>
       </c>
-      <c r="F21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="2" t="str">
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>6.0</v>
       </c>
-      <c r="H21" s="2" t="str">
+      <c r="I21" s="2" t="str">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-      <c r="K21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O21" s="5">
+      <c r="L21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N21" s="5">
         <v>95</v>
       </c>
-      <c r="P21" t="s">
-        <v>31</v>
+      <c r="O21" t="s">
+        <v>26</v>
+      </c>
+      <c r="R21" t="s">
+        <v>100</v>
       </c>
       <c r="S21" t="s">
-        <v>106</v>
-      </c>
-      <c r="T21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>